--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H2">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I2">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J2">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>183.9733464744186</v>
+        <v>223.260654794464</v>
       </c>
       <c r="R2">
-        <v>183.9733464744186</v>
+        <v>2009.345893150176</v>
       </c>
       <c r="S2">
-        <v>0.001393750795357929</v>
+        <v>0.001548084530887297</v>
       </c>
       <c r="T2">
-        <v>0.001393750795357929</v>
+        <v>0.001630237134597986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H3">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I3">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J3">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>9586.246380386447</v>
+        <v>10510.73267143759</v>
       </c>
       <c r="R3">
-        <v>9586.246380386447</v>
+        <v>94596.5940429383</v>
       </c>
       <c r="S3">
-        <v>0.0726237728084078</v>
+        <v>0.0728811920395197</v>
       </c>
       <c r="T3">
-        <v>0.0726237728084078</v>
+        <v>0.07674879717872586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H4">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I4">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J4">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>6329.624738335628</v>
+        <v>6637.810035655029</v>
       </c>
       <c r="R4">
-        <v>6329.624738335628</v>
+        <v>59740.29032089526</v>
       </c>
       <c r="S4">
-        <v>0.04795216091043483</v>
+        <v>0.04602643060697863</v>
       </c>
       <c r="T4">
-        <v>0.04795216091043483</v>
+        <v>0.04846892714927365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H5">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I5">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J5">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>7429.542326851603</v>
+        <v>7906.361380703253</v>
       </c>
       <c r="R5">
-        <v>7429.542326851603</v>
+        <v>71157.25242632927</v>
       </c>
       <c r="S5">
-        <v>0.05628494956270561</v>
+        <v>0.05482253807926633</v>
       </c>
       <c r="T5">
-        <v>0.05628494956270561</v>
+        <v>0.05773181994041814</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.7686055065557</v>
+        <v>56.56930800000001</v>
       </c>
       <c r="H6">
-        <v>54.7686055065557</v>
+        <v>169.707924</v>
       </c>
       <c r="I6">
-        <v>0.1952704157863309</v>
+        <v>0.1915403855399942</v>
       </c>
       <c r="J6">
-        <v>0.1952704157863309</v>
+        <v>0.1959965330721471</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>2246.061716619246</v>
+        <v>2345.282841846792</v>
       </c>
       <c r="R6">
-        <v>2246.061716619246</v>
+        <v>14071.69705108075</v>
       </c>
       <c r="S6">
-        <v>0.01701578170942471</v>
+        <v>0.01626214028334224</v>
       </c>
       <c r="T6">
-        <v>0.01701578170942471</v>
+        <v>0.01141675166913151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.8852176098128</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H7">
-        <v>69.8852176098128</v>
+        <v>236.194275</v>
       </c>
       <c r="I7">
-        <v>0.2491667511664669</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J7">
-        <v>0.2491667511664669</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>234.7515923375349</v>
+        <v>310.7273205180666</v>
       </c>
       <c r="R7">
-        <v>234.7515923375349</v>
+        <v>2796.5458846626</v>
       </c>
       <c r="S7">
-        <v>0.001778438153145593</v>
+        <v>0.002154576491146284</v>
       </c>
       <c r="T7">
-        <v>0.001778438153145593</v>
+        <v>0.002268913961168063</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.8852176098128</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H8">
-        <v>69.8852176098128</v>
+        <v>236.194275</v>
       </c>
       <c r="I8">
-        <v>0.2491667511664669</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J8">
-        <v>0.2491667511664669</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>12232.13386863386</v>
+        <v>14628.51483027401</v>
       </c>
       <c r="R8">
-        <v>12232.13386863386</v>
+        <v>131656.6334724661</v>
       </c>
       <c r="S8">
-        <v>0.09266856658882208</v>
+        <v>0.1014338040863084</v>
       </c>
       <c r="T8">
-        <v>0.09266856658882208</v>
+        <v>0.106816618101764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.8852176098128</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H9">
-        <v>69.8852176098128</v>
+        <v>236.194275</v>
       </c>
       <c r="I9">
-        <v>0.2491667511664669</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J9">
-        <v>0.2491667511664669</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>8076.656291241367</v>
+        <v>9238.300086443007</v>
       </c>
       <c r="R9">
-        <v>8076.656291241367</v>
+        <v>83144.70077798708</v>
       </c>
       <c r="S9">
-        <v>0.06118737494029076</v>
+        <v>0.06405817213374861</v>
       </c>
       <c r="T9">
-        <v>0.06118737494029076</v>
+        <v>0.06745756378500337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.8852176098128</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H10">
-        <v>69.8852176098128</v>
+        <v>236.194275</v>
       </c>
       <c r="I10">
-        <v>0.2491667511664669</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J10">
-        <v>0.2491667511664669</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>9480.160713443584</v>
+        <v>11003.83087712041</v>
       </c>
       <c r="R10">
-        <v>9480.160713443584</v>
+        <v>99034.47789408367</v>
       </c>
       <c r="S10">
-        <v>0.07182008583140186</v>
+        <v>0.07630032428710988</v>
       </c>
       <c r="T10">
-        <v>0.07182008583140186</v>
+        <v>0.08034937340496605</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>69.8852176098128</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H11">
-        <v>69.8852176098128</v>
+        <v>236.194275</v>
       </c>
       <c r="I11">
-        <v>0.2491667511664669</v>
+        <v>0.2665800242529595</v>
       </c>
       <c r="J11">
-        <v>0.2491667511664669</v>
+        <v>0.2727819534902171</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>2865.994311507842</v>
+        <v>3264.092609487949</v>
       </c>
       <c r="R11">
-        <v>2865.994311507842</v>
+        <v>19584.5556569277</v>
       </c>
       <c r="S11">
-        <v>0.02171228565280669</v>
+        <v>0.02263314725464624</v>
       </c>
       <c r="T11">
-        <v>0.02171228565280669</v>
+        <v>0.01588948423731561</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.6200253893587</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H12">
-        <v>89.6200253893587</v>
+        <v>272.099526</v>
       </c>
       <c r="I12">
-        <v>0.3195286690012012</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J12">
-        <v>0.3195286690012012</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>301.042829728961</v>
+        <v>357.9627686920693</v>
       </c>
       <c r="R12">
-        <v>301.042829728961</v>
+        <v>3221.664918228624</v>
       </c>
       <c r="S12">
-        <v>0.002280649297369187</v>
+        <v>0.002482106062780933</v>
       </c>
       <c r="T12">
-        <v>0.002280649297369187</v>
+        <v>0.002613824629613111</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.6200253893587</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H13">
-        <v>89.6200253893587</v>
+        <v>272.099526</v>
       </c>
       <c r="I13">
-        <v>0.3195286690012012</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J13">
-        <v>0.3195286690012012</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>15686.35235556703</v>
+        <v>16852.27955419973</v>
       </c>
       <c r="R13">
-        <v>15686.35235556703</v>
+        <v>151670.5159877976</v>
       </c>
       <c r="S13">
-        <v>0.1188371385899439</v>
+        <v>0.116853340379488</v>
       </c>
       <c r="T13">
-        <v>0.1188371385899439</v>
+        <v>0.1230544269305978</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.6200253893587</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H14">
-        <v>89.6200253893587</v>
+        <v>272.099526</v>
       </c>
       <c r="I14">
-        <v>0.3195286690012012</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J14">
-        <v>0.3195286690012012</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>10357.41415192417</v>
+        <v>10642.66724740429</v>
       </c>
       <c r="R14">
-        <v>10357.41415192417</v>
+        <v>95784.00522663859</v>
       </c>
       <c r="S14">
-        <v>0.07846600873840733</v>
+        <v>0.07379602352351429</v>
       </c>
       <c r="T14">
-        <v>0.07846600873840733</v>
+        <v>0.077712176262588</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.6200253893587</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H15">
-        <v>89.6200253893587</v>
+        <v>272.099526</v>
       </c>
       <c r="I15">
-        <v>0.3195286690012012</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J15">
-        <v>0.3195286690012012</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>12157.25260494457</v>
+        <v>12676.58653389726</v>
       </c>
       <c r="R15">
-        <v>12157.25260494457</v>
+        <v>114089.2788050754</v>
       </c>
       <c r="S15">
-        <v>0.09210127886576668</v>
+        <v>0.08789917567717884</v>
       </c>
       <c r="T15">
-        <v>0.09210127886576668</v>
+        <v>0.09256374405301852</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.6200253893587</v>
+        <v>90.69984199999999</v>
       </c>
       <c r="H16">
-        <v>89.6200253893587</v>
+        <v>272.099526</v>
       </c>
       <c r="I16">
-        <v>0.3195286690012012</v>
+        <v>0.3071043878616396</v>
       </c>
       <c r="J16">
-        <v>0.3195286690012012</v>
+        <v>0.3142491080532842</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>3675.31921267174</v>
+        <v>3760.286111345307</v>
       </c>
       <c r="R16">
-        <v>3675.31921267174</v>
+        <v>22561.71666807184</v>
       </c>
       <c r="S16">
-        <v>0.02784359350971414</v>
+        <v>0.02607374221867759</v>
       </c>
       <c r="T16">
-        <v>0.02784359350971414</v>
+        <v>0.01830493617746683</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>47.4061125382598</v>
+        <v>49.19389200000001</v>
       </c>
       <c r="H17">
-        <v>47.4061125382598</v>
+        <v>147.581676</v>
       </c>
       <c r="I17">
-        <v>0.1690203944493627</v>
+        <v>0.1665676560846888</v>
       </c>
       <c r="J17">
-        <v>0.1690203944493627</v>
+        <v>0.1704428182208917</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>159.2419797134073</v>
+        <v>194.152287311136</v>
       </c>
       <c r="R17">
-        <v>159.2419797134073</v>
+        <v>1747.370585800224</v>
       </c>
       <c r="S17">
-        <v>0.001206390165386233</v>
+        <v>0.001346247743022424</v>
       </c>
       <c r="T17">
-        <v>0.001206390165386233</v>
+        <v>0.001417689421511092</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>47.4061125382598</v>
+        <v>49.19389200000001</v>
       </c>
       <c r="H18">
-        <v>47.4061125382598</v>
+        <v>147.581676</v>
       </c>
       <c r="I18">
-        <v>0.1690203944493627</v>
+        <v>0.1665676560846888</v>
       </c>
       <c r="J18">
-        <v>0.1690203944493627</v>
+        <v>0.1704428182208917</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>8297.576148322585</v>
+        <v>9140.360138037613</v>
       </c>
       <c r="R18">
-        <v>8297.576148322585</v>
+        <v>82263.24124233851</v>
       </c>
       <c r="S18">
-        <v>0.0628610262186846</v>
+        <v>0.06337905865886484</v>
       </c>
       <c r="T18">
-        <v>0.0628610262186846</v>
+        <v>0.0667424116190381</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>47.4061125382598</v>
+        <v>49.19389200000001</v>
       </c>
       <c r="H19">
-        <v>47.4061125382598</v>
+        <v>147.581676</v>
       </c>
       <c r="I19">
-        <v>0.1690203944493627</v>
+        <v>0.1665676560846888</v>
       </c>
       <c r="J19">
-        <v>0.1690203944493627</v>
+        <v>0.1704428182208917</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>5478.739140703062</v>
+        <v>5772.382967996173</v>
       </c>
       <c r="R19">
-        <v>5478.739140703062</v>
+        <v>51951.44671196556</v>
       </c>
       <c r="S19">
-        <v>0.04150599628286528</v>
+        <v>0.04002557811782321</v>
       </c>
       <c r="T19">
-        <v>0.04150599628286528</v>
+        <v>0.0421496258631489</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>47.4061125382598</v>
+        <v>49.19389200000001</v>
       </c>
       <c r="H20">
-        <v>47.4061125382598</v>
+        <v>147.581676</v>
       </c>
       <c r="I20">
-        <v>0.1690203944493627</v>
+        <v>0.1665676560846888</v>
       </c>
       <c r="J20">
-        <v>0.1690203944493627</v>
+        <v>0.1704428182208917</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>6430.795825399156</v>
+        <v>6875.542615357548</v>
       </c>
       <c r="R20">
-        <v>6430.795825399156</v>
+        <v>61879.88353821794</v>
       </c>
       <c r="S20">
-        <v>0.04871861586580863</v>
+        <v>0.04767486315083287</v>
       </c>
       <c r="T20">
-        <v>0.04871861586580863</v>
+        <v>0.05020483749089482</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>47.4061125382598</v>
+        <v>49.19389200000001</v>
       </c>
       <c r="H21">
-        <v>47.4061125382598</v>
+        <v>147.581676</v>
       </c>
       <c r="I21">
-        <v>0.1690203944493627</v>
+        <v>0.1665676560846888</v>
       </c>
       <c r="J21">
-        <v>0.1690203944493627</v>
+        <v>0.1704428182208917</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>1944.125718029901</v>
+        <v>2039.508611830008</v>
       </c>
       <c r="R21">
-        <v>1944.125718029901</v>
+        <v>12237.05167098005</v>
       </c>
       <c r="S21">
-        <v>0.01472836591661798</v>
+        <v>0.01414190841414548</v>
       </c>
       <c r="T21">
-        <v>0.01472836591661798</v>
+        <v>0.009928253826298798</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.7957335767727</v>
+        <v>20.144335</v>
       </c>
       <c r="H22">
-        <v>18.7957335767727</v>
+        <v>40.28867</v>
       </c>
       <c r="I22">
-        <v>0.06701376959663841</v>
+        <v>0.06820754626071789</v>
       </c>
       <c r="J22">
-        <v>0.06701376959663841</v>
+        <v>0.04652958716345985</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>63.13679111560659</v>
+        <v>79.50313662134666</v>
       </c>
       <c r="R22">
-        <v>63.13679111560659</v>
+        <v>477.01881972808</v>
       </c>
       <c r="S22">
-        <v>0.0004783135955292306</v>
+        <v>0.0005512730224402172</v>
       </c>
       <c r="T22">
-        <v>0.0004783135955292306</v>
+        <v>0.000387018380694845</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.7957335767727</v>
+        <v>20.144335</v>
       </c>
       <c r="H23">
-        <v>18.7957335767727</v>
+        <v>40.28867</v>
       </c>
       <c r="I23">
-        <v>0.06701376959663841</v>
+        <v>0.06820754626071789</v>
       </c>
       <c r="J23">
-        <v>0.06701376959663841</v>
+        <v>0.04652958716345985</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>3289.850659890875</v>
+        <v>3742.872725770018</v>
       </c>
       <c r="R23">
-        <v>3289.850659890875</v>
+        <v>22457.23635462011</v>
       </c>
       <c r="S23">
-        <v>0.02492334928782353</v>
+        <v>0.02595299818133568</v>
       </c>
       <c r="T23">
-        <v>0.02492334928782353</v>
+        <v>0.01822016844912095</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.7957335767727</v>
+        <v>20.144335</v>
       </c>
       <c r="H24">
-        <v>18.7957335767727</v>
+        <v>40.28867</v>
       </c>
       <c r="I24">
-        <v>0.06701376959663841</v>
+        <v>0.06820754626071789</v>
       </c>
       <c r="J24">
-        <v>0.06701376959663841</v>
+        <v>0.04652958716345985</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>2172.228763583648</v>
+        <v>2363.724672477818</v>
       </c>
       <c r="R24">
-        <v>2172.228763583648</v>
+        <v>14182.34803486691</v>
       </c>
       <c r="S24">
-        <v>0.01645643580965712</v>
+        <v>0.01639001553636171</v>
       </c>
       <c r="T24">
-        <v>0.01645643580965712</v>
+        <v>0.01150652583064493</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.7957335767727</v>
+        <v>20.144335</v>
       </c>
       <c r="H25">
-        <v>18.7957335767727</v>
+        <v>40.28867</v>
       </c>
       <c r="I25">
-        <v>0.06701376959663841</v>
+        <v>0.06820754626071789</v>
       </c>
       <c r="J25">
-        <v>0.06701376959663841</v>
+        <v>0.04652958716345985</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>2549.703372603554</v>
+        <v>2815.455905593698</v>
       </c>
       <c r="R25">
-        <v>2549.703372603554</v>
+        <v>16892.73543356219</v>
       </c>
       <c r="S25">
-        <v>0.0193161192726748</v>
+        <v>0.01952231009470714</v>
       </c>
       <c r="T25">
-        <v>0.0193161192726748</v>
+        <v>0.01370553706189303</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.7957335767727</v>
+        <v>20.144335</v>
       </c>
       <c r="H26">
-        <v>18.7957335767727</v>
+        <v>40.28867</v>
       </c>
       <c r="I26">
-        <v>0.06701376959663841</v>
+        <v>0.06820754626071789</v>
       </c>
       <c r="J26">
-        <v>0.06701376959663841</v>
+        <v>0.04652958716345985</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>770.8134474504901</v>
+        <v>835.1554032782899</v>
       </c>
       <c r="R26">
-        <v>770.8134474504901</v>
+        <v>3340.62161311316</v>
       </c>
       <c r="S26">
-        <v>0.005839551630953732</v>
+        <v>0.005790949425873142</v>
       </c>
       <c r="T26">
-        <v>0.005839551630953732</v>
+        <v>0.002710337441106099</v>
       </c>
     </row>
   </sheetData>
